--- a/biology/Médecine/Maladie_métabolique/Maladie_métabolique.xlsx
+++ b/biology/Médecine/Maladie_métabolique/Maladie_métabolique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maladie_m%C3%A9tabolique</t>
+          <t>Maladie_métabolique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une maladie métabolique est un trouble médical qui affecte les métabolismes dans la cellule, en particulier la production d'énergie. 
 La plupart des maladies métaboliques sont génétiques, bien qu'un petit nombre d'entre elles soient « acquises » du fait du régime alimentaire, d'agents toxiques ou de toxines, d'infections, etc. Les maladies métaboliques génétiques sont également appelées maladies métaboliques congénitales.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maladie_m%C3%A9tabolique</t>
+          <t>Maladie_métabolique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Maladies métaboliques génétiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En général, les maladies métaboliques génétiques sont dues à des déficiences génétiques résultant en l'absence ou la dysfonction d'enzymes nécessaires à l'une ou l'autre étape d'un processus métabolique dans la cellule.
 Les trois plus grandes classes de maladies métaboliques sont :
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maladie_m%C3%A9tabolique</t>
+          <t>Maladie_métabolique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,7 +571,9 @@
           <t>Maladies métaboliques non-génétiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains régimes alimentaires particuliers peuvent être à l'origine d'une maladie métabolique tel que le régime cétogène.
 Portion de texte anglais à traduire en français
